--- a/WinForm/Resource/BCCuonSach.xlsx
+++ b/WinForm/Resource/BCCuonSach.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mã đầu sách:</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>DANH SÁCH CUỐN SÁCH THEO ĐẦU SÁCH</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,23 +110,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,109 +451,121 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="14">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
